--- a/resultats_predictions_co2.xlsx
+++ b/resultats_predictions_co2.xlsx
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>456521.74</v>
+        <v>434782.61</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1369565.22</v>
+        <v>1304347.83</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>456521.74</v>
+        <v>434782.61</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>913043.48</v>
+        <v>869565.22</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
@@ -538,7 +538,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>456521.74</v>
+        <v>434782.61</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
@@ -554,7 +554,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1369565.22</v>
+        <v>1304347.83</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>913043.48</v>
+        <v>869565.22</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
@@ -586,7 +586,7 @@
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>1369565.22</v>
+        <v>1304347.83</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
@@ -602,7 +602,7 @@
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1369565.22</v>
+        <v>1304347.83</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
@@ -618,7 +618,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>456521.74</v>
+        <v>434782.61</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>456521.74</v>
+        <v>434782.61</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -650,7 +650,7 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>913043.48</v>
+        <v>869565.22</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -666,7 +666,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>565217.39</v>
+        <v>652173.91</v>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1695652.17</v>
+        <v>1956521.74</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>565217.39</v>
+        <v>652173.91</v>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>1130434.78</v>
+        <v>1304347.83</v>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>565217.39</v>
+        <v>652173.91</v>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
@@ -746,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>1695652.17</v>
+        <v>1956521.74</v>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
@@ -762,7 +762,7 @@
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1130434.78</v>
+        <v>1304347.83</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -778,7 +778,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>1695652.17</v>
+        <v>1956521.74</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>1695652.17</v>
+        <v>1956521.74</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>565217.39</v>
+        <v>652173.91</v>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -824,10 +824,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>565217.39</v>
+        <v>652173.91</v>
       </c>
       <c r="E24" t="n">
-        <v>301745.0466129032</v>
+        <v>301745.0461445987</v>
       </c>
       <c r="F24" t="n">
         <v>315881.0579083773</v>
@@ -842,10 +842,10 @@
         <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>1130434.78</v>
+        <v>1304347.83</v>
       </c>
       <c r="E25" t="n">
-        <v>374105.0090322581</v>
+        <v>374105.00963581</v>
       </c>
       <c r="F25" t="n">
         <v>431229.7543119738</v>
